--- a/cals_dr_005_use.xlsx
+++ b/cals_dr_005_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel.MIGUEL-DESK\Documents\GitHub\RC_Column_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE9517A-FB3A-4B6C-8E82-7BEB142306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5740E8B-10DD-4527-92C7-0B49600588C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37665" yWindow="420" windowWidth="19245" windowHeight="11175" xr2:uid="{8E680040-B64D-4FA5-90C7-FB85C559532A}"/>
+    <workbookView xWindow="32310" yWindow="1620" windowWidth="19245" windowHeight="11175" xr2:uid="{8E680040-B64D-4FA5-90C7-FB85C559532A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +68,6 @@
     <t>data looks bad but should be fixable</t>
   </si>
   <si>
-    <t>(this set still has too much noise)</t>
-  </si>
-  <si>
     <t>(up to here, all have a lot of noise)</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>data looks bad</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>Spiral</t>
   </si>
 </sst>
 </file>
@@ -455,12 +461,12 @@
   <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,64 +476,88 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -537,176 +567,242 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -716,40 +812,55 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -759,8 +870,11 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -770,16 +884,22 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -789,8 +909,11 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -800,8 +923,11 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -811,8 +937,11 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -822,8 +951,11 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -833,8 +965,11 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -844,40 +979,55 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -887,176 +1037,242 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1066,8 +1282,11 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1077,8 +1296,11 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1088,8 +1310,11 @@
       <c r="C73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1099,8 +1324,11 @@
       <c r="C74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1110,8 +1338,11 @@
       <c r="C75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1121,72 +1352,99 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1196,8 +1454,11 @@
       <c r="C85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1207,8 +1468,11 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1218,8 +1482,11 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1229,8 +1496,11 @@
       <c r="C88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1240,8 +1510,11 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1251,8 +1524,11 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1262,8 +1538,11 @@
       <c r="C91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1273,8 +1552,11 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1284,8 +1566,11 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1295,8 +1580,11 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1306,120 +1594,165 @@
       <c r="C95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1429,8 +1762,11 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1440,8 +1776,11 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1451,80 +1790,110 @@
       <c r="C112" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1534,8 +1903,11 @@
       <c r="C122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1545,8 +1917,11 @@
       <c r="C123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1556,8 +1931,11 @@
       <c r="C124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1567,40 +1945,55 @@
       <c r="C125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1610,8 +2003,11 @@
       <c r="C130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1621,8 +2017,11 @@
       <c r="C131" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1632,8 +2031,11 @@
       <c r="C132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1643,8 +2045,11 @@
       <c r="C133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1654,8 +2059,11 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1665,8 +2073,11 @@
       <c r="C135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1676,24 +2087,33 @@
       <c r="C136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1703,120 +2123,165 @@
       <c r="C139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -1826,32 +2291,44 @@
       <c r="C154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -1861,8 +2338,11 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -1872,8 +2352,11 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -1883,8 +2366,11 @@
       <c r="C160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -1894,8 +2380,11 @@
       <c r="C161" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -1905,8 +2394,11 @@
       <c r="C162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -1916,16 +2408,22 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -1935,144 +2433,198 @@
       <c r="C165" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2082,40 +2634,55 @@
       <c r="C183" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2125,8 +2692,11 @@
       <c r="C188" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2136,80 +2706,110 @@
       <c r="C189" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2219,16 +2819,22 @@
       <c r="C199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2238,16 +2844,22 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2257,72 +2869,99 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2332,24 +2971,33 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2359,77 +3007,107 @@
       <c r="C215" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
         <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,6 +3117,9 @@
       <c r="B225">
         <v>1</v>
       </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -2447,6 +3128,9 @@
       <c r="B226">
         <v>1</v>
       </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -2455,6 +3139,9 @@
       <c r="B227">
         <v>1</v>
       </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -2467,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,6 +3164,9 @@
       <c r="B229">
         <v>1</v>
       </c>
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -2485,6 +3175,9 @@
       <c r="B230">
         <v>1</v>
       </c>
+      <c r="D230" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -2493,6 +3186,9 @@
       <c r="B231">
         <v>0</v>
       </c>
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -2504,6 +3200,9 @@
       <c r="C232" t="s">
         <v>6</v>
       </c>
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -2515,6 +3214,9 @@
       <c r="C233" t="s">
         <v>6</v>
       </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -2526,6 +3228,9 @@
       <c r="C234" t="s">
         <v>6</v>
       </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -2534,6 +3239,9 @@
       <c r="B235">
         <v>1</v>
       </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -2545,6 +3253,9 @@
       <c r="C236" t="s">
         <v>8</v>
       </c>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -2556,6 +3267,9 @@
       <c r="C237" t="s">
         <v>8</v>
       </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -2564,6 +3278,9 @@
       <c r="B238">
         <v>1</v>
       </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -2572,6 +3289,9 @@
       <c r="B239">
         <v>1</v>
       </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -2580,8 +3300,11 @@
       <c r="B240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -2589,42 +3312,57 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -2632,18 +3370,24 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -2651,10 +3395,13 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -2662,10 +3409,13 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -2673,10 +3423,13 @@
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -2684,10 +3437,13 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -2695,10 +3451,13 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -2708,8 +3467,11 @@
       <c r="C253" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -2719,8 +3481,11 @@
       <c r="C254" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -2728,10 +3493,13 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -2739,10 +3507,13 @@
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -2750,10 +3521,13 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -2761,10 +3535,13 @@
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -2772,10 +3549,13 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -2783,10 +3563,13 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -2794,10 +3577,13 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -2805,10 +3591,13 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -2816,10 +3605,13 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -2827,10 +3619,13 @@
         <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -2838,10 +3633,13 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -2849,18 +3647,24 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -2870,8 +3674,11 @@
       <c r="C268" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -2881,152 +3688,209 @@
       <c r="C269" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -3036,80 +3900,110 @@
       <c r="C288" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -3117,90 +4011,123 @@
         <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -3210,72 +4137,99 @@
       <c r="C309" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -3285,32 +4239,44 @@
       <c r="C318" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -3320,16 +4286,22 @@
       <c r="C322" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -3339,8 +4311,11 @@
       <c r="C324" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -3350,120 +4325,165 @@
       <c r="C325" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -3473,24 +4493,33 @@
       <c r="C340" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -3500,40 +4529,55 @@
       <c r="C343" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
       <c r="B347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -3543,8 +4587,11 @@
       <c r="C348" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -3554,8 +4601,11 @@
       <c r="C349" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -3565,8 +4615,11 @@
       <c r="C350" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -3576,8 +4629,11 @@
       <c r="C351" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -3587,56 +4643,77 @@
       <c r="C352" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
       <c r="B357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -3646,24 +4723,33 @@
       <c r="C359" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -3673,72 +4759,99 @@
       <c r="C362" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
       <c r="B368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
       <c r="B369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
       <c r="B370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -3748,8 +4861,11 @@
       <c r="C371" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -3759,8 +4875,11 @@
       <c r="C372" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -3770,32 +4889,44 @@
       <c r="C373" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
       <c r="B376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -3805,16 +4936,22 @@
       <c r="C377" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -3822,34 +4959,46 @@
         <v>0</v>
       </c>
       <c r="C379" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
       <c r="B380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -3859,48 +5008,66 @@
       <c r="C383" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
       <c r="B388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -3910,8 +5077,11 @@
       <c r="C389" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -3921,8 +5091,11 @@
       <c r="C390" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -3932,8 +5105,11 @@
       <c r="C391" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -3943,32 +5119,44 @@
       <c r="C392" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
       <c r="B393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -3978,40 +5166,55 @@
       <c r="C396" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
       <c r="B397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -4021,40 +5224,55 @@
       <c r="C401" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
       <c r="B403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
       <c r="B404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
       <c r="B405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -4064,8 +5282,11 @@
       <c r="C406" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -4075,8 +5296,11 @@
       <c r="C407" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -4086,16 +5310,22 @@
       <c r="C408" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
       <c r="B409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -4105,8 +5335,11 @@
       <c r="C410" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -4116,8 +5349,11 @@
       <c r="C411" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -4127,16 +5363,22 @@
       <c r="C412" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
       <c r="B413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -4146,8 +5388,11 @@
       <c r="C414" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -4157,21 +5402,30 @@
       <c r="C415" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
       <c r="B416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
       <c r="B417">
         <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
